--- a/VS_code/Verbeterde planning Running dinner 2023.xlsx
+++ b/VS_code/Verbeterde planning Running dinner 2023.xlsx
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">

--- a/VS_code/Verbeterde planning Running dinner 2023.xlsx
+++ b/VS_code/Verbeterde planning Running dinner 2023.xlsx
@@ -491,17 +491,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -523,17 +523,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -555,17 +555,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -587,17 +587,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -657,7 +657,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -695,12 +695,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -733,12 +733,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -771,26 +771,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -809,26 +809,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>VW_18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>VW_27</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VW_18</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -885,22 +885,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -923,22 +923,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>WO_49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VW_23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>VW_20</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>WO_71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>WO_53</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -961,22 +961,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>VW_15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>WO_81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>VW_20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>WO_61</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>VW_72</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -999,22 +999,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1037,22 +1037,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1075,26 +1075,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>VW_32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>VW_23</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>VW_32</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1113,26 +1113,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>VW_15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>VW_23</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>VW_35</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1227,22 +1227,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>VW_32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>VW_27</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>WO_61</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1265,22 +1265,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>WO_49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>VW_27</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>WO_32</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1303,26 +1303,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>WO_11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>VW_31</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>WO_26</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1341,26 +1341,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>WO_79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>VW_31</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VW_51</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1394,11 +1394,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1417,26 +1417,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1455,22 +1455,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1493,22 +1493,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1607,22 +1607,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1645,22 +1645,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1840,12 +1840,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1911,22 +1911,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -1949,22 +1949,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1987,22 +1987,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>WO_77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>VW_33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>VW_57</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>WO_38</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>WO_87</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2025,22 +2025,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>VW_39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>VW_23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>VW_57</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>VW_32</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>WO_16</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2063,26 +2063,26 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>WO_27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>VW_5</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>WO_55</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2101,26 +2101,26 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>WO_40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>VW_5</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>WO_55</t>
-        </is>
-      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2139,22 +2139,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>VW_8</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>VW_62</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>VW_21</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2177,22 +2177,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>WO_77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>WO_27</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>VW_62</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>WO_49</t>
-        </is>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2215,17 +2215,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2247,17 +2247,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2279,14 +2279,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>WO_20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>VW_6</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>WO_77</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>VW_25</t>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2317,26 +2317,26 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>WO_33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>WO_51</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>VW_70</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>WO_20</t>
-        </is>
-      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2355,26 +2355,26 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>WO_53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>VW_70</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>WO_50</t>
-        </is>
-      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2393,12 +2393,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2545,22 +2545,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>VW_51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>WO_81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>VW_9</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>VW_70</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>WO_55</t>
-        </is>
-      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2583,22 +2583,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>VW_39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>WO_40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>VW_9</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>VW_5</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>WO_75</t>
-        </is>
-      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2659,26 +2659,26 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -2697,26 +2697,26 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -2735,22 +2735,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>WO_16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>WO_40</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>WO_32</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2773,22 +2773,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2811,12 +2811,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -2887,22 +2887,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2935,12 +2935,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -3044,12 +3044,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3082,12 +3082,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3115,26 +3115,26 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>WO_55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>WO_24</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>VW_39</t>
-        </is>
-      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3153,26 +3153,26 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>WO_85</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>WO_24</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>VW_39</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -3191,22 +3191,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>VW_35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>WO_26</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>WO_50</t>
-        </is>
-      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3234,17 +3234,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>WO_87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>WO_26</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>VW_39</t>
-        </is>
-      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3267,14 +3267,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>VW_51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>WO_27</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>VW_51</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>VW_3</t>
@@ -3282,11 +3282,11 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3305,14 +3305,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>VW_46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>WO_27</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>WO_79</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>VW_3</t>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -3343,26 +3343,26 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>WO_81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>WO_32</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>WO_41</t>
-        </is>
-      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -3381,26 +3381,26 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>VW_12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>WO_32</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>WO_75</t>
-        </is>
-      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -3419,17 +3419,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -3451,17 +3451,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3488,12 +3488,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3559,26 +3559,26 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>WO_38</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>VW_12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>WO_36</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>VW_8</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>WO_87</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -3597,26 +3597,26 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>WO_33</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>WO_53</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>WO_36</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>WO_71</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>WO_1</t>
-        </is>
-      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -3635,26 +3635,26 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -3673,26 +3673,26 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -3711,22 +3711,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>WO_13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>WO_40</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>WO_52</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3749,22 +3749,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>WO_13</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>WO_40</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>WO_26</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3787,26 +3787,26 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -3825,26 +3825,26 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -3863,22 +3863,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>VW_6</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>WO_45</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>WO_13</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3901,22 +3901,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>VW_21</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>WO_45</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>WO_50</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3939,26 +3939,26 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -3977,26 +3977,26 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>WO_49</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>VW_31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>VW_57</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>VW_12</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>WO_49</t>
-        </is>
-      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4091,22 +4091,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>WO_13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>WO_51</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>WO_77</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -4129,22 +4129,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>VW_39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>WO_51</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>WO_52</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4167,22 +4167,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>WO_51</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>WO_52</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>VW_72</t>
-        </is>
-      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4205,22 +4205,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>WO_87</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>WO_52</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>WO_87</t>
-        </is>
-      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4243,22 +4243,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -4281,22 +4281,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -4319,22 +4319,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -4357,17 +4357,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>VW_18</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>WO_7</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>VW_18</t>
-        </is>
-      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -4389,17 +4389,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>VW_18</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>WO_7</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>VW_18</t>
-        </is>
-      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4497,17 +4497,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -4529,17 +4529,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -4561,22 +4561,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>WO_16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>WO_69</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>VW_62</t>
-        </is>
-      </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -4599,22 +4599,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>WO_13</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>WO_69</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>WO_24</t>
-        </is>
-      </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -4637,22 +4637,22 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
+          <t>VW_27</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>WO_71</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>VW_33</t>
-        </is>
-      </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -4675,22 +4675,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
+          <t>VW_12</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>WO_71</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>VW_33</t>
-        </is>
-      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -4713,12 +4713,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4789,26 +4789,26 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -4827,26 +4827,26 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
+          <t>WO_77</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t>WO_69</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>WO_77</t>
-        </is>
-      </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -4865,22 +4865,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4903,22 +4903,22 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4941,22 +4941,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>VW_18</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>WO_7</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>VW_18</t>
-        </is>
-      </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4979,22 +4979,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>VW_18</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
           <t>WO_7</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>VW_18</t>
-        </is>
-      </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -5017,26 +5017,26 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -5055,26 +5055,26 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -5093,26 +5093,26 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>VW_39</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>WO_85</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>VW_51</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -5131,26 +5131,26 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>WO_20</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
           <t>WO_85</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>VW_32</t>
-        </is>
-      </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -5169,22 +5169,22 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -5239,17 +5239,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
